--- a/xlsx/_wiki_20#钢管_intext.xlsx
+++ b/xlsx/_wiki_20#钢管_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="339">
   <si>
     <t>20#钢管</t>
   </si>
@@ -486,12 +486,6 @@
   </si>
   <si>
     <t>阅读</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/Project:%E4%B8%8A%E4%BC%A0</t>
-  </si>
-  <si>
-    <t>上传图像或多媒体文件[u]</t>
   </si>
   <si>
     <t>https://ab.wikipedia.org/wiki/20_(%D0%B0%D1%85%D1%8B%D2%A7%D1%85%D1%8C%D0%B0%D3%A1%D0%B0%D1%80%D0%B0)</t>
@@ -1386,7 +1380,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G175"/>
+  <dimension ref="A1:G174"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1595,7 +1589,7 @@
         <v>17</v>
       </c>
       <c r="G9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1733,7 +1727,7 @@
         <v>29</v>
       </c>
       <c r="G15" t="n">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1802,7 +1796,7 @@
         <v>33</v>
       </c>
       <c r="G18" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -2216,7 +2210,7 @@
         <v>65</v>
       </c>
       <c r="G36" t="n">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -2239,7 +2233,7 @@
         <v>67</v>
       </c>
       <c r="G37" t="n">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -2262,7 +2256,7 @@
         <v>69</v>
       </c>
       <c r="G38" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -2285,7 +2279,7 @@
         <v>71</v>
       </c>
       <c r="G39" t="n">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -3688,7 +3682,7 @@
         <v>190</v>
       </c>
       <c r="G100" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -3711,7 +3705,7 @@
         <v>192</v>
       </c>
       <c r="G101" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -4608,7 +4602,7 @@
         <v>270</v>
       </c>
       <c r="G140" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:7">
@@ -4631,7 +4625,7 @@
         <v>272</v>
       </c>
       <c r="G141" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:7">
@@ -5390,29 +5384,6 @@
         <v>338</v>
       </c>
       <c r="G174" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="175" spans="1:7">
-      <c r="A175" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="B175" t="s">
-        <v>0</v>
-      </c>
-      <c r="C175" t="s">
-        <v>1</v>
-      </c>
-      <c r="D175" t="n">
-        <v>174</v>
-      </c>
-      <c r="E175" t="s">
-        <v>339</v>
-      </c>
-      <c r="F175" t="s">
-        <v>340</v>
-      </c>
-      <c r="G175" t="n">
         <v>1</v>
       </c>
     </row>

--- a/xlsx/_wiki_20#钢管_intext.xlsx
+++ b/xlsx/_wiki_20#钢管_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="339">
   <si>
     <t>20#钢管</t>
   </si>
@@ -486,12 +486,6 @@
   </si>
   <si>
     <t>阅读</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/Project:%E4%B8%8A%E4%BC%A0</t>
-  </si>
-  <si>
-    <t>上传图像或多媒体文件[u]</t>
   </si>
   <si>
     <t>https://ab.wikipedia.org/wiki/20_(%D0%B0%D1%85%D1%8B%D2%A7%D1%85%D1%8C%D0%B0%D3%A1%D0%B0%D1%80%D0%B0)</t>
@@ -1386,7 +1380,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G175"/>
+  <dimension ref="A1:G174"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1641,7 +1635,7 @@
         <v>21</v>
       </c>
       <c r="G11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1733,7 +1727,7 @@
         <v>29</v>
       </c>
       <c r="G15" t="n">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1756,7 +1750,7 @@
         <v>31</v>
       </c>
       <c r="G16" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1802,7 +1796,7 @@
         <v>33</v>
       </c>
       <c r="G18" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -2239,7 +2233,7 @@
         <v>67</v>
       </c>
       <c r="G37" t="n">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -2262,7 +2256,7 @@
         <v>69</v>
       </c>
       <c r="G38" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -3688,7 +3682,7 @@
         <v>190</v>
       </c>
       <c r="G100" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -3711,7 +3705,7 @@
         <v>192</v>
       </c>
       <c r="G101" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -4608,7 +4602,7 @@
         <v>270</v>
       </c>
       <c r="G140" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:7">
@@ -4631,7 +4625,7 @@
         <v>272</v>
       </c>
       <c r="G141" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:7">
@@ -5390,29 +5384,6 @@
         <v>338</v>
       </c>
       <c r="G174" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="175" spans="1:7">
-      <c r="A175" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="B175" t="s">
-        <v>0</v>
-      </c>
-      <c r="C175" t="s">
-        <v>1</v>
-      </c>
-      <c r="D175" t="n">
-        <v>174</v>
-      </c>
-      <c r="E175" t="s">
-        <v>339</v>
-      </c>
-      <c r="F175" t="s">
-        <v>340</v>
-      </c>
-      <c r="G175" t="n">
         <v>1</v>
       </c>
     </row>

--- a/xlsx/_wiki_20#钢管_intext.xlsx
+++ b/xlsx/_wiki_20#钢管_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="341">
   <si>
     <t>20#钢管</t>
   </si>
@@ -23,463 +23,463 @@
     <t>https://zh.wikipedia.org/zh-cn/20%23%E9%92%A2%E7%AE%A1</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%95%B0%E8%A1%A8</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%95%B0%E8%A1%A8</t>
   </si>
   <si>
     <t>数表</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E6%95%B0</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%95%B4%E6%95%B0</t>
   </si>
   <si>
     <t>整数</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/19</t>
+    <t>https://zh.wikipedia.org/zh-cn/19</t>
   </si>
   <si>
     <t>19</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/21</t>
+    <t>https://zh.wikipedia.org/zh-cn/21</t>
   </si>
   <si>
     <t>21</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/22</t>
+    <t>https://zh.wikipedia.org/zh-cn/22</t>
   </si>
   <si>
     <t>22</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/23</t>
+    <t>https://zh.wikipedia.org/zh-cn/23</t>
   </si>
   <si>
     <t>23</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/24</t>
+    <t>https://zh.wikipedia.org/zh-cn/24</t>
   </si>
   <si>
     <t>24</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/25</t>
+    <t>https://zh.wikipedia.org/zh-cn/25</t>
   </si>
   <si>
     <t>25</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/26</t>
+    <t>https://zh.wikipedia.org/zh-cn/26</t>
   </si>
   <si>
     <t>26</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/27</t>
+    <t>https://zh.wikipedia.org/zh-cn/27</t>
   </si>
   <si>
     <t>27</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/28</t>
+    <t>https://zh.wikipedia.org/zh-cn/28</t>
   </si>
   <si>
     <t>28</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/29</t>
+    <t>https://zh.wikipedia.org/zh-cn/29</t>
   </si>
   <si>
     <t>29</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/30</t>
+    <t>https://zh.wikipedia.org/zh-cn/30</t>
   </si>
   <si>
     <t>30</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/0</t>
+    <t>https://zh.wikipedia.org/zh-cn/0</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/10</t>
+    <t>https://zh.wikipedia.org/zh-cn/10</t>
   </si>
   <si>
     <t>10</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/40</t>
+    <t>https://zh.wikipedia.org/zh-cn/40</t>
   </si>
   <si>
     <t>40</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/50</t>
+    <t>https://zh.wikipedia.org/zh-cn/50</t>
   </si>
   <si>
     <t>50</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/60</t>
+    <t>https://zh.wikipedia.org/zh-cn/60</t>
   </si>
   <si>
     <t>60</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/70</t>
+    <t>https://zh.wikipedia.org/zh-cn/70</t>
   </si>
   <si>
     <t>70</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/80</t>
+    <t>https://zh.wikipedia.org/zh-cn/80</t>
   </si>
   <si>
     <t>80</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/90</t>
+    <t>https://zh.wikipedia.org/zh-cn/90</t>
   </si>
   <si>
     <t>90</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E6%96%87%E6%95%B0%E5%AD%97</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E4%B8%AD%E6%96%87%E6%95%B0%E5%AD%97</t>
   </si>
   <si>
     <t>中文数字</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B4%A8%E5%9B%A0%E6%95%B0%E5%88%86%E8%A7%A3</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E8%B4%A8%E5%9B%A0%E6%95%B0%E5%88%86%E8%A7%A3</t>
   </si>
   <si>
     <t>质因数分解</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E9%A9%AC%E6%95%B0%E5%AD%97</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E7%BD%97%E9%A9%AC%E6%95%B0%E5%AD%97</t>
   </si>
   <si>
     <t>罗马数字</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%8C%E8%BF%9B%E5%88%B6</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E4%BA%8C%E8%BF%9B%E5%88%B6</t>
   </si>
   <si>
     <t>二进制</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%AB%E8%BF%9B%E5%88%B6</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%85%AB%E8%BF%9B%E5%88%B6</t>
   </si>
   <si>
     <t>八进制</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%81%E4%BA%8C%E8%BF%9B%E5%88%B6</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%8D%81%E4%BA%8C%E8%BF%9B%E5%88%B6</t>
   </si>
   <si>
     <t>十二进制</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%81%E5%85%AD%E8%BF%9B%E5%88%B6</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%8D%81%E5%85%AD%E8%BF%9B%E5%88%B6</t>
   </si>
   <si>
     <t>十六进制</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%84%B6%E6%95%B0</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E8%87%AA%E7%84%B6%E6%95%B0</t>
   </si>
   <si>
     <t>自然数</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%90%88%E6%95%B0</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%90%88%E6%95%B0</t>
   </si>
   <si>
     <t>合数</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%A0%E6%95%B8</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%9B%A0%E6%95%B8</t>
   </si>
   <si>
     <t>因数</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/1</t>
+    <t>https://zh.wikipedia.org/zh-cn/1</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/2</t>
+    <t>https://zh.wikipedia.org/zh-cn/2</t>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/4</t>
+    <t>https://zh.wikipedia.org/zh-cn/4</t>
   </si>
   <si>
     <t>4</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/5</t>
+    <t>https://zh.wikipedia.org/zh-cn/5</t>
   </si>
   <si>
     <t>5</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%81%8E%E5%89%A9%E6%95%B8</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E9%81%8E%E5%89%A9%E6%95%B8</t>
   </si>
   <si>
     <t>过剩数</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9C%AC%E5%8E%9F%E9%81%8E%E5%89%A9%E6%95%B8</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%9C%AC%E5%8E%9F%E9%81%8E%E5%89%A9%E6%95%B8</t>
   </si>
   <si>
     <t>本原过剩数</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BD%A9%E6%9C%8D%E6%95%B8</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E4%BD%A9%E6%9C%8D%E6%95%B8</t>
   </si>
   <si>
     <t>佩服数</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E8%A7%92%E5%BD%A2%E6%95%B8</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E4%B8%89%E8%A7%92%E5%BD%A2%E6%95%B8</t>
   </si>
   <si>
     <t>三角形数</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%9B%E9%9D%A2%E9%AB%94%E6%95%B8</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%9B%9B%E9%9D%A2%E9%AB%94%E6%95%B8</t>
   </si>
   <si>
     <t>四面体数</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%81%E8%BF%9B%E5%88%B6</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%8D%81%E8%BF%9B%E5%88%B6</t>
   </si>
   <si>
     <t>十进制</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%93%88%E6%B2%99%E5%BE%B7%E6%95%B8</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%93%88%E6%B2%99%E5%BE%B7%E6%95%B8</t>
   </si>
   <si>
     <t>哈沙德数</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E6%88%91%E6%95%B8</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E8%87%AA%E6%88%91%E6%95%B8</t>
   </si>
   <si>
     <t>自我数</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/6</t>
+    <t>https://zh.wikipedia.org/zh-cn/6</t>
   </si>
   <si>
     <t>6</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9C%89%E6%A0%B9%E6%A8%B9</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%9C%89%E6%A0%B9%E6%A8%B9</t>
   </si>
   <si>
     <t>有根树</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AD%A3%E4%BA%8C%E5%8D%81%E9%9D%A2%E9%AB%94</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%AD%A3%E4%BA%8C%E5%8D%81%E9%9D%A2%E9%AB%94</t>
   </si>
   <si>
     <t>正二十面体</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AD%A3%E5%A4%9A%E9%9D%A2%E9%AB%94</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%AD%A3%E5%A4%9A%E9%9D%A2%E9%AB%94</t>
   </si>
   <si>
     <t>正多面体</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E6%B4%9B%E5%B0%BC%E5%85%8B%E6%95%B0</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%99%AE%E6%B4%9B%E5%B0%BC%E5%85%8B%E6%95%B0</t>
   </si>
   <si>
     <t>普洛尼克数</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%8E%86</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%85%AC%E5%8E%86</t>
   </si>
   <si>
     <t>公历</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B9%B4</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%B9%B4</t>
   </si>
   <si>
     <t>年</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9C%88</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%9C%88</t>
   </si>
   <si>
     <t>月</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/1%E6%9C%8820%E6%97%A5</t>
+    <t>https://zh.wikipedia.org/zh-cn/1%E6%9C%8820%E6%97%A5</t>
   </si>
   <si>
     <t>1月20日</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/2%E6%9C%8820%E6%97%A5</t>
+    <t>https://zh.wikipedia.org/zh-cn/2%E6%9C%8820%E6%97%A5</t>
   </si>
   <si>
     <t>2月20日</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/3%E6%9C%8820%E6%97%A5</t>
+    <t>https://zh.wikipedia.org/zh-cn/3%E6%9C%8820%E6%97%A5</t>
   </si>
   <si>
     <t>3月20日</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/4%E6%9C%8820%E6%97%A5</t>
+    <t>https://zh.wikipedia.org/zh-cn/4%E6%9C%8820%E6%97%A5</t>
   </si>
   <si>
     <t>4月20日</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/5%E6%9C%8820%E6%97%A5</t>
+    <t>https://zh.wikipedia.org/zh-cn/5%E6%9C%8820%E6%97%A5</t>
   </si>
   <si>
     <t>5月20日</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/6%E6%9C%8820%E6%97%A5</t>
+    <t>https://zh.wikipedia.org/zh-cn/6%E6%9C%8820%E6%97%A5</t>
   </si>
   <si>
     <t>6月20日</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/7%E6%9C%8820%E6%97%A5</t>
+    <t>https://zh.wikipedia.org/zh-cn/7%E6%9C%8820%E6%97%A5</t>
   </si>
   <si>
     <t>7月20日</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/8%E6%9C%8820%E6%97%A5</t>
+    <t>https://zh.wikipedia.org/zh-cn/8%E6%9C%8820%E6%97%A5</t>
   </si>
   <si>
     <t>8月20日</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/9%E6%9C%8820%E6%97%A5</t>
+    <t>https://zh.wikipedia.org/zh-cn/9%E6%9C%8820%E6%97%A5</t>
   </si>
   <si>
     <t>9月20日</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/10%E6%9C%8820%E6%97%A5</t>
+    <t>https://zh.wikipedia.org/zh-cn/10%E6%9C%8820%E6%97%A5</t>
   </si>
   <si>
     <t>10月20日</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/11%E6%9C%8820%E6%97%A5</t>
+    <t>https://zh.wikipedia.org/zh-cn/11%E6%9C%8820%E6%97%A5</t>
   </si>
   <si>
     <t>11月20日</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/12%E6%9C%8820%E6%97%A5</t>
+    <t>https://zh.wikipedia.org/zh-cn/12%E6%9C%8820%E6%97%A5</t>
   </si>
   <si>
     <t>12月20日</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%89%8D20%E5%B9%B4</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%89%8D20%E5%B9%B4</t>
   </si>
   <si>
     <t>前20年</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/20%E5%B9%B4</t>
+    <t>https://zh.wikipedia.org/zh-cn/20%E5%B9%B4</t>
   </si>
   <si>
     <t>20年</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%89%8D20%E4%B8%96%E7%BA%AA</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%89%8D20%E4%B8%96%E7%BA%AA</t>
   </si>
   <si>
     <t>前20世纪</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/20%E4%B8%96%E7%BA%AA</t>
+    <t>https://zh.wikipedia.org/zh-cn/20%E4%B8%96%E7%BA%AA</t>
   </si>
   <si>
     <t>20世纪</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%82%B3%E8%AA%AA</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%82%B3%E8%AA%AA</t>
   </si>
   <si>
     <t>传说</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%88%A3</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E9%88%A3</t>
   </si>
   <si>
     <t>钙</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8E%9F%E5%AD%90%E5%BA%8F%E6%95%B0</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%8E%9F%E5%AD%90%E5%BA%8F%E6%95%B0</t>
   </si>
   <si>
     <t>原子序数</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%AD%94%E6%96%B9</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E9%AD%94%E6%96%B9</t>
   </si>
   <si>
     <t>魔方</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A0%BB%E7%8E%87</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E9%A0%BB%E7%8E%87</t>
   </si>
   <si>
     <t>频率</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B5%AB%E5%85%B9</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E8%B5%AB%E5%85%B9</t>
   </si>
   <si>
     <t>赫兹</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E9%A6%99%E6%B8%AF</t>
   </si>
   <si>
     <t>香港</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B8%AF%E5%B9%A3</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%B8%AF%E5%B9%A3</t>
   </si>
   <si>
     <t>港币</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E8%A9%9E%E5%85%B8</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E7%B6%AD%E5%9F%BA%E8%A9%9E%E5%85%B8</t>
   </si>
   <si>
     <t>维基词典</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/20</t>
+    <t>https://zh.wikipedia.org/zh-cn/20</t>
   </si>
   <si>
     <t>浏览条目正文[c]</t>
@@ -846,6 +846,12 @@
   </si>
   <si>
     <t>20 – Western Punjabi</t>
+  </si>
+  <si>
+    <t>https://ps.wikipedia.org/wiki/%DB%B2%DB%B0_(%D8%B9%D8%AF%D8%AF)</t>
+  </si>
+  <si>
+    <t>۲۰ (عدد) – 普什图语</t>
   </si>
   <si>
     <t>https://pt.wikipedia.org/wiki/Vinte</t>
@@ -1380,7 +1386,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G174"/>
+  <dimension ref="A1:G175"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1497,7 +1503,7 @@
         <v>9</v>
       </c>
       <c r="G5" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1520,7 +1526,7 @@
         <v>11</v>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1543,7 +1549,7 @@
         <v>13</v>
       </c>
       <c r="G7" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1566,7 +1572,7 @@
         <v>15</v>
       </c>
       <c r="G8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1589,7 +1595,7 @@
         <v>17</v>
       </c>
       <c r="G9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1635,7 +1641,7 @@
         <v>21</v>
       </c>
       <c r="G11" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1658,7 +1664,7 @@
         <v>23</v>
       </c>
       <c r="G12" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1727,7 +1733,7 @@
         <v>29</v>
       </c>
       <c r="G15" t="n">
-        <v>162</v>
+        <v>173</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1750,7 +1756,7 @@
         <v>31</v>
       </c>
       <c r="G16" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1773,7 +1779,7 @@
         <v>27</v>
       </c>
       <c r="G17" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1842,7 +1848,7 @@
         <v>37</v>
       </c>
       <c r="G20" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1865,7 +1871,7 @@
         <v>39</v>
       </c>
       <c r="G21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1911,7 +1917,7 @@
         <v>43</v>
       </c>
       <c r="G23" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -2210,7 +2216,7 @@
         <v>65</v>
       </c>
       <c r="G36" t="n">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -2233,7 +2239,7 @@
         <v>67</v>
       </c>
       <c r="G37" t="n">
-        <v>127</v>
+        <v>142</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -2256,7 +2262,7 @@
         <v>69</v>
       </c>
       <c r="G38" t="n">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -2279,7 +2285,7 @@
         <v>71</v>
       </c>
       <c r="G39" t="n">
-        <v>71</v>
+        <v>61</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -2486,7 +2492,7 @@
         <v>89</v>
       </c>
       <c r="G48" t="n">
-        <v>24</v>
+        <v>36</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -5384,6 +5390,29 @@
         <v>338</v>
       </c>
       <c r="G174" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="s">
+        <v>0</v>
+      </c>
+      <c r="C175" t="s">
+        <v>1</v>
+      </c>
+      <c r="D175" t="n">
+        <v>174</v>
+      </c>
+      <c r="E175" t="s">
+        <v>339</v>
+      </c>
+      <c r="F175" t="s">
+        <v>340</v>
+      </c>
+      <c r="G175" t="n">
         <v>1</v>
       </c>
     </row>
